--- a/split_data/input/all_cities/HsinChu.xlsx
+++ b/split_data/input/all_cities/HsinChu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,17 +759,15 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>竹北市自強北路與十興路口</t>
+          <t>竹北市光明六路東二段與高鐵七路口</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>50</v>
-      </c>
+          <t>車輛不禮讓行人、違規迴轉</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -784,7 +782,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>竹北市西濱路一段與西濱路二段265巷口(台61線)</t>
+          <t>竹北市自強北路與十興路口</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -793,7 +791,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -809,7 +807,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>竹北市東興路二段316號前</t>
+          <t>竹北市西濱路一段與西濱路二段265巷口(台61線)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -818,7 +816,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -834,16 +832,16 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>竹北市興隆路與莊敬南路口</t>
+          <t>竹北市東興路二段316號前</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -859,16 +857,16 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>竹北市東興路二段198號前</t>
+          <t>竹北市興隆路與莊敬南路口</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -884,15 +882,17 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>竹東鎮東林路與北興路一段路口</t>
+          <t>竹北市東興路二段198號前</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>60</v>
+      </c>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -907,17 +907,15 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>竹東鎮中興路一段94-2號</t>
+          <t>竹東鎮東林路與北興路一段路口</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>50</v>
-      </c>
+          <t>闖紅燈、車輛不禮讓行人</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -932,15 +930,17 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>竹東鎮中興路三段與學府路口</t>
+          <t>竹東鎮中興路一段94-2號</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌行駛</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -955,17 +955,15 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路三段老爺山莊路口北上</t>
+          <t>竹東鎮中興路三段與學府路口</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>50</v>
-      </c>
+          <t>闖紅燈、未依標誌標線號誌行駛</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -980,12 +978,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路與台68線路口</t>
+          <t>竹東鎮中豐路三段老爺山莊路口北上</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1005,12 +1003,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>竹東鎮公道路616號前</t>
+          <t>竹東鎮中豐路與台68線路口</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1030,7 +1028,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(西向東)12.3公里處</t>
+          <t>竹東鎮公道路616號前</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1038,10 +1036,8 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>大車80/小車90</t>
-        </is>
+      <c r="H24" t="n">
+        <v>50</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1057,7 +1053,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(東向西)12公里處</t>
+          <t>竹東鎮台68線(西向東)12.3公里處</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1084,7 +1080,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>竹東鎮台68線竹東匝道口與北興路三段</t>
+          <t>竹東鎮台68線(東向西)12公里處</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1092,8 +1088,10 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>50</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>大車80/小車90</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1109,7 +1107,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>峨眉鄉中豐公路中興中盛村路口(台3線83.5k)</t>
+          <t>竹東鎮台68線竹東匝道口與北興路三段</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1118,7 +1116,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1134,7 +1132,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.4K(往峨眉)</t>
+          <t>峨眉鄉中豐公路中興中盛村路口(台3線83.5k)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1159,7 +1157,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.6K(往竹東)</t>
+          <t>峨眉鄉台3線89.4K(往峨眉)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1184,7 +1182,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線91.2K</t>
+          <t>峨眉鄉台3線89.6K(往竹東)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1209,7 +1207,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>寶山鄉三峰路二段8號前</t>
+          <t>峨眉鄉台3線91.2K</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1218,7 +1216,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1234,7 +1232,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>寶山鄉雙林路一段(竹47-1線4.1K)</t>
+          <t>寶山鄉三峰路二段8號前</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1243,7 +1241,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1259,7 +1257,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>寶山鄉雙園路二段90巷5號前</t>
+          <t>寶山鄉雙林路一段(竹47-1線4.1K)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1284,7 +1282,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路一段228號旁</t>
+          <t>寶山鄉雙園路二段90巷5號前</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1293,7 +1291,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1309,7 +1307,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路二段(竹83線0.8K)</t>
+          <t>寶山鄉寶山路一段228號旁</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1334,7 +1332,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段1008號前</t>
+          <t>寶山鄉寶山路二段(竹83線0.8K)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1343,7 +1341,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1359,7 +1357,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段369號</t>
+          <t>新埔鎮文山路亞東段1008號前</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1384,7 +1382,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>新埔鎮新關路五埔段與1046巷口</t>
+          <t>新埔鎮文山路亞東段369號</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1393,7 +1391,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1409,7 +1407,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>新埔鎮楊新路楊新路一段322號前</t>
+          <t>新埔鎮新關路五埔段與1046巷口</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1418,7 +1416,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1434,16 +1432,16 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>新埔鎮褒忠路與文山路口</t>
+          <t>新埔鎮楊新路楊新路一段322號前</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1459,15 +1457,17 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>關西鎮正義路與中山路口</t>
+          <t>新埔鎮褒忠路與文山路口</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>40</v>
+      </c>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1482,17 +1482,15 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>關西鎮大同茅仔埔5鄰35號旁</t>
+          <t>關西鎮正義路與中山路口</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>50</v>
-      </c>
+          <t>闖紅燈、車輛不禮讓行人</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1507,7 +1505,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路牛欄河6鄰63號</t>
+          <t>關西鎮大同茅仔埔5鄰35號旁</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1516,7 +1514,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1532,7 +1530,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與十六張路口前</t>
+          <t>關西鎮中豐公路牛欄河6鄰63號</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1541,7 +1539,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1557,12 +1555,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與中山東路口</t>
+          <t>關西鎮中豐公路與十六張路口前</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -1582,16 +1580,16 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>關西鎮石岡子路736號旁</t>
+          <t>關西鎮中豐公路與中山東路口</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1607,7 +1605,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>關西鎮台3線62.1公里處</t>
+          <t>關西鎮石岡子路736號旁</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1616,7 +1614,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -1632,7 +1630,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段35號前</t>
+          <t>關西鎮台3線62.1公里處</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1641,7 +1639,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -1657,7 +1655,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段與中山路一段口南下</t>
+          <t>湖口鄉八德路一段35號前</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1682,7 +1680,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>湖口鄉八德路二段579號前</t>
+          <t>湖口鄉八德路一段與中山路一段口南下</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1707,7 +1705,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與忠義路口南下</t>
+          <t>湖口鄉八德路二段579號前</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -1716,7 +1714,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -1732,12 +1730,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與達生路口</t>
+          <t>湖口鄉中山路一段與忠義路口南下</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、機車未依規定兩段式左轉</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -1757,16 +1755,16 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>湖口鄉成功路與三元路路口</t>
+          <t>湖口鄉中山路一段與達生路口</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、機車未依規定兩段式左轉</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -1782,12 +1780,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>湖口鄉新興路與中華路口</t>
+          <t>湖口鄉成功路與三元路路口</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標線號誌行駛、機車未兩段式</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -1807,15 +1805,17 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與建興路一段路口</t>
+          <t>湖口鄉新興路與中華路口</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>闖紅燈、測速、未依標誌標線號誌行駛、機車未兩段式</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>60</v>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1830,12 +1830,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>新豐鄉康樂路一段與明新街口</t>
+          <t>新豐鄉新興路與建興路一段路口</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>未保持路口淨空</t>
+          <t>闖紅燈、車輛不禮讓行人</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -1853,12 +1853,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與康樂路一段口</t>
+          <t>新豐鄉康樂路一段與明新街口</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌行駛</t>
+          <t>未保持路口淨空</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -1876,17 +1876,15 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>新豐鄉濱海公路埔和村189號之1南下</t>
+          <t>新豐鄉新興路與康樂路一段口</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>60</v>
-      </c>
+          <t>闖紅燈、未依標誌標線號誌行駛</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -1901,7 +1899,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>新豐鄉台15線62.8公里處</t>
+          <t>新豐鄉濱海公路埔和村189號之1南下</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -1926,7 +1924,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>新豐鄉濱海公路與竹1-1線口(台15線64.4K)</t>
+          <t>新豐鄉台15線62.8公里處</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -1951,7 +1949,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>新豐鄉台61線北上60.1公里處</t>
+          <t>新豐鄉濱海公路與竹1-1線口(台15線64.4K)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -1959,10 +1957,8 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>大車80/小車90</t>
-        </is>
+      <c r="H61" t="n">
+        <v>60</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -1978,7 +1974,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>竹120線11.5K竹林交流道北上匝道口</t>
+          <t>新豐鄉台61線北上60.1公里處</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -1986,8 +1982,10 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>60</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>大車80/小車90</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2003,7 +2001,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>芎林鄉富林路三段與光明路口</t>
+          <t>竹120線11.5K竹林交流道北上匝道口</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2028,7 +2026,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>芎林鄉文德路6號前</t>
+          <t>芎林鄉富林路三段與光明路口</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2053,7 +2051,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>芎林鄉文德路259號旁</t>
+          <t>芎林鄉文德路6號前</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2062,7 +2060,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2078,7 +2076,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>芎林鄉富林路一段518前</t>
+          <t>芎林鄉文德路259號旁</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2087,7 +2085,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2103,12 +2101,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路一段與站前街口</t>
+          <t>芎林鄉富林路一段518前</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2128,16 +2126,16 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路三段139號前</t>
+          <t>橫山鄉中豐路一段與站前街口</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2153,7 +2151,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路與中豐路二段12巷口</t>
+          <t>橫山鄉中豐路三段139號前</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2162,7 +2160,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2178,11 +2176,13 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>台15線鳳鼻尾隧道(北向南)</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>964</v>
+          <t>橫山鄉中豐路與中豐路二段12巷口</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
       </c>
       <c r="H70" t="n">
         <v>60</v>
@@ -2201,7 +2201,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>台15線鳳鼻尾隧道(南向北)</t>
+          <t>台15線鳳鼻尾隧道(北向南)</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -2224,7 +2224,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>台3線82.2K至84.3K(北向南)</t>
+          <t>台15線鳳鼻尾隧道(南向北)</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2247,7 +2247,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>台3線84.3K至82.2K(南向北)</t>
+          <t>台3線82.2K至84.3K(北向南)</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2270,15 +2270,15 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>新竹高鐵站四號出口前引道</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>違規（臨時）停車、違規上客、違規攬客</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>台3線84.3K至82.2K(南向北)</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>964</v>
+      </c>
+      <c r="H74" t="n">
+        <v>60</v>
+      </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2293,12 +2293,12 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>竹北市自強南路路口南往北(文興路至復興五街間)</t>
+          <t>新竹高鐵站四號出口前引道</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>違規（臨時）停車</t>
+          <t>違規（臨時）停車、違規上客、違規攬客</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2316,7 +2316,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>竹東鎮中興路三段北往南(173-195號間)</t>
+          <t>竹北市自強南路路口南往北(文興路至復興五街間)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2339,11 +2339,13 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>竹北市中華路段</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>5</v>
+          <t>竹北市高鐵七路北往南(光明六路東二段與高鐵東一路間)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>違規（臨時）停車</t>
+        </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -2360,11 +2362,13 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>竹北市沿河街段</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>5</v>
+          <t>竹東鎮中興路三段北往南(173-195號間)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>違規（臨時）停車</t>
+        </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -2381,7 +2385,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>竹北市溪洲路段</t>
+          <t>竹北市中華路段</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -2402,7 +2406,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>竹北市興隆路一、二段</t>
+          <t>竹北市沿河街段</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -2423,7 +2427,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>竹北市自強北路段</t>
+          <t>竹北市溪洲路段</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -2444,7 +2448,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>竹北市東興路一段</t>
+          <t>竹北市興隆路一、二段</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -2465,7 +2469,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>竹北市中正西路段</t>
+          <t>竹北市自強北路段</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -2486,7 +2490,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>竹北市西濱路一、二段</t>
+          <t>竹北市東興路一段</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -2507,7 +2511,7 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路三段</t>
+          <t>竹北市中正西路段</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -2528,7 +2532,7 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>竹東鎮竹122線道</t>
+          <t>竹北市西濱路一、二段</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -2549,7 +2553,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>竹東鎮台68線</t>
+          <t>竹東鎮中豐路三段</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -2570,7 +2574,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>竹東鎮中興路二段</t>
+          <t>竹東鎮竹122線道</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -2591,7 +2595,7 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>寶山鄉寶新路二段</t>
+          <t>竹東鎮台68線</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -2612,7 +2616,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>台3線75公里至88公里間</t>
+          <t>竹東鎮中興路二段</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -2633,7 +2637,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>新埔鎮楊新路一段</t>
+          <t>寶山鄉寶新路二段</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -2654,7 +2658,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>新埔鎮竹118線道</t>
+          <t>台3線75公里至88公里間</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -2675,7 +2679,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>新埔鎮汶水溪橋附近</t>
+          <t>新埔鎮楊新路一段</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -2696,7 +2700,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>新埔鎮新湖路</t>
+          <t>新埔鎮竹118線道</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -2717,7 +2721,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>新埔鎮義民路三段</t>
+          <t>新埔鎮汶水溪橋附近</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -2738,7 +2742,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>新埔鎮文山路犁頭山段</t>
+          <t>新埔鎮新湖路</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -2759,7 +2763,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>新埔鎮文德路一段</t>
+          <t>新埔鎮義民路三段</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -2780,7 +2784,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>關西鎮竹118線道</t>
+          <t>新埔鎮文山路犁頭山段</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -2801,7 +2805,7 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>關西鎮台3線54公里至64公里間</t>
+          <t>新埔鎮文德路一段</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -2822,7 +2826,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>關西鎮中豐新路</t>
+          <t>關西鎮竹118線道</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -2843,7 +2847,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>湖口鄉成功路</t>
+          <t>關西鎮台3線54公里至64公里間</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -2864,7 +2868,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>湖口鄉竹7-1線</t>
+          <t>關西鎮中豐新路</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -2885,7 +2889,7 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段</t>
+          <t>湖口鄉成功路</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -2906,7 +2910,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>湖口鄉中山路三段</t>
+          <t>湖口鄉竹7-1線</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -2927,7 +2931,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>湖口鄉中正路二段</t>
+          <t>湖口鄉中山路一段</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -2948,7 +2952,7 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>湖口鄉台1線50公里至60公里間</t>
+          <t>湖口鄉中山路三段</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -2969,7 +2973,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>湖口鄉鐵騎路</t>
+          <t>湖口鄉中正路二段</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -2990,7 +2994,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>新豐鄉建興路一段</t>
+          <t>湖口鄉台1線50公里至60公里間</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -3011,7 +3015,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>新豐鄉竹1線</t>
+          <t>湖口鄉鐵騎路</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -3032,7 +3036,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>新豐鄉竹2線</t>
+          <t>新豐鄉建興路一段</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -3053,7 +3057,7 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>新豐鄉台15線60公里至65公里間</t>
+          <t>新豐鄉竹1線</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -3074,7 +3078,7 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>新豐鄉台61線55公里至65公里間</t>
+          <t>新豐鄉竹2線</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -3095,7 +3099,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>芎林鄉120縣道</t>
+          <t>新豐鄉台15線60公里至65公里間</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -3116,7 +3120,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>芎林鄉文德路</t>
+          <t>新豐鄉台61線55公里至65公里間</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -3137,7 +3141,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>芎林鄉新中正橋</t>
+          <t>芎林鄉120縣道</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -3158,7 +3162,7 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>芎林鄉福昌街</t>
+          <t>芎林鄉文德路</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -3179,7 +3183,7 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>台3線64公里至74公里間</t>
+          <t>芎林鄉新中正橋</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -3187,6 +3191,48 @@
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>新竹縣</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>芎林鄉福昌街</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>新竹縣</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>台3線64公里至74公里間</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>5</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
